--- a/data/cl_planned_schedule_20220617.xlsx
+++ b/data/cl_planned_schedule_20220617.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667b39c49d6998ed/Documents/cl_schedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{97FBC959-E1A9-4488-85AA-F77CBF99D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34A683FD-5F7A-4DCF-9411-86BDA281CCD1}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="8_{97FBC959-E1A9-4488-85AA-F77CBF99D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5FB3626-D55E-4B0D-B27E-67CC8A315073}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cl_shifts" sheetId="1" r:id="rId1"/>
+    <sheet name="cl_shifts_jeopardy" sheetId="2" r:id="rId1"/>
+    <sheet name="cl_shifts" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cl_shifts!$A$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cl_shifts!$A$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cl_shifts_jeopardy!$A$1:$J$81</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="46">
   <si>
     <t>resident</t>
   </si>
@@ -155,6 +157,12 @@
   </si>
   <si>
     <t>Deenah, Jess</t>
+  </si>
+  <si>
+    <t>Jeopardy</t>
+  </si>
+  <si>
+    <t>Resident</t>
   </si>
 </sst>
 </file>
@@ -582,10 +590,2785 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52778E9A-6432-4984-82DF-A4EF42DC7C3E}">
+  <dimension ref="A1:K81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44743</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44744</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44745</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44746</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44747</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44748</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44749</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44750</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44751</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44752</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44753</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="5">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44754</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="5">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44755</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5">
+        <v>29</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44756</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5">
+        <v>29</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44757</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44758</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="2">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44759</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44760</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="5">
+        <v>30</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44761</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="5">
+        <v>30</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44762</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="5">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44763</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5">
+        <v>30</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44764</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44765</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="2">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44766</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="2">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="6">
+        <v>44767</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="5">
+        <v>31</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44768</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5">
+        <v>31</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44769</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="5">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44770</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="5">
+        <v>31</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44771</v>
+      </c>
+      <c r="G30" s="5">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="5">
+        <v>31</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44772</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="2">
+        <v>31</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44773</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="2">
+        <v>32</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44774</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="5">
+        <v>32</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6">
+        <v>44775</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="5">
+        <v>32</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="6">
+        <v>44776</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="5">
+        <v>32</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="6">
+        <v>44777</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="5">
+        <v>32</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>44778</v>
+      </c>
+      <c r="G37" s="5">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="5">
+        <v>32</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44779</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="2">
+        <v>32</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44780</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="2">
+        <v>33</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>12</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="6">
+        <v>44781</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="5">
+        <v>33</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="6">
+        <v>44782</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="5">
+        <v>33</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5">
+        <v>12</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44783</v>
+      </c>
+      <c r="G42" s="5">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="5">
+        <v>33</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="6">
+        <v>44784</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="5">
+        <v>33</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="6">
+        <v>44785</v>
+      </c>
+      <c r="G44" s="5">
+        <v>6</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="5">
+        <v>33</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44786</v>
+      </c>
+      <c r="G45" s="2">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="2">
+        <v>33</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44787</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="2">
+        <v>34</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>14</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="6">
+        <v>44788</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="5">
+        <v>34</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>14</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="6">
+        <v>44789</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="5">
+        <v>34</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="6">
+        <v>44790</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="5">
+        <v>34</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>14</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="6">
+        <v>44791</v>
+      </c>
+      <c r="G50" s="5">
+        <v>5</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="5">
+        <v>34</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>14</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="6">
+        <v>44792</v>
+      </c>
+      <c r="G51" s="5">
+        <v>6</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="5">
+        <v>34</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3">
+        <v>44793</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="2">
+        <v>34</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="2">
+        <v>35</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>16</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="6">
+        <v>44795</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="5">
+        <v>35</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5">
+        <v>16</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>16</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="6">
+        <v>44796</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="5">
+        <v>35</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5">
+        <v>16</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>16</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="6">
+        <v>44797</v>
+      </c>
+      <c r="G56" s="5">
+        <v>4</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="5">
+        <v>35</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5">
+        <v>16</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>16</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="6">
+        <v>44798</v>
+      </c>
+      <c r="G57" s="5">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="5">
+        <v>35</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="5">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>16</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="6">
+        <v>44799</v>
+      </c>
+      <c r="G58" s="5">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="5">
+        <v>35</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>17</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44800</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="2">
+        <v>35</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="2">
+        <v>17</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44801</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="2">
+        <v>36</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5">
+        <v>18</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>18</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="6">
+        <v>44802</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" s="5">
+        <v>36</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>18</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="6">
+        <v>44803</v>
+      </c>
+      <c r="G62" s="5">
+        <v>3</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="5">
+        <v>36</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5">
+        <v>18</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>18</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="6">
+        <v>44804</v>
+      </c>
+      <c r="G63" s="5">
+        <v>4</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="5">
+        <v>36</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="5">
+        <v>18</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>18</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="6">
+        <v>44805</v>
+      </c>
+      <c r="G64" s="5">
+        <v>5</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="5">
+        <v>36</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="5">
+        <v>18</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>18</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="6">
+        <v>44806</v>
+      </c>
+      <c r="G65" s="5">
+        <v>6</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="5">
+        <v>36</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>19</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>19</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G66" s="2">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="2">
+        <v>36</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>19</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>19</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44808</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="2">
+        <v>37</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>20</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="3">
+        <v>44809</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="2">
+        <v>37</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5">
+        <v>20</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>20</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="6">
+        <v>44810</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="5">
+        <v>37</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="5">
+        <v>20</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="6">
+        <v>44811</v>
+      </c>
+      <c r="G70" s="5">
+        <v>4</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="5">
+        <v>37</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="5">
+        <v>20</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>20</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="6">
+        <v>44812</v>
+      </c>
+      <c r="G71" s="5">
+        <v>5</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="5">
+        <v>37</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="5">
+        <v>20</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G72" s="5">
+        <v>6</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="5">
+        <v>37</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>21</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="3">
+        <v>44814</v>
+      </c>
+      <c r="G73" s="2">
+        <v>7</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="2">
+        <v>37</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2">
+        <v>21</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>21</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3">
+        <v>44815</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5">
+        <v>22</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
+        <v>22</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="6">
+        <v>44816</v>
+      </c>
+      <c r="G75" s="5">
+        <v>2</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="5">
+        <v>38</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5">
+        <v>22</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>22</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="6">
+        <v>44817</v>
+      </c>
+      <c r="G76" s="5">
+        <v>3</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="5">
+        <v>38</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="5">
+        <v>22</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>22</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="6">
+        <v>44818</v>
+      </c>
+      <c r="G77" s="5">
+        <v>4</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="5">
+        <v>38</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>22</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="6">
+        <v>44819</v>
+      </c>
+      <c r="G78" s="5">
+        <v>5</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="5">
+        <v>38</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>22</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="6">
+        <v>44820</v>
+      </c>
+      <c r="G79" s="5">
+        <v>6</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" s="5">
+        <v>38</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="2">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>23</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="3">
+        <v>44821</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="2">
+        <v>38</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="2">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>23</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="2">
+        <v>39</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G61" sqref="G60:G61"/>
     </sheetView>
   </sheetViews>

--- a/data/cl_planned_schedule_20220617.xlsx
+++ b/data/cl_planned_schedule_20220617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667b39c49d6998ed/Documents/cl_schedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{97FBC959-E1A9-4488-85AA-F77CBF99D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5FB3626-D55E-4B0D-B27E-67CC8A315073}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{97FBC959-E1A9-4488-85AA-F77CBF99D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE771469-B1A0-45F8-B6CD-3B7E6CA0F8B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,17 +595,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1707,7 +1708,7 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1740,7 +1741,7 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -1773,7 +1774,7 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -1806,7 +1807,7 @@
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2105,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2140,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2175,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2210,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2245,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2280,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
